--- a/DB Architecture.xlsx
+++ b/DB Architecture.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="150" yWindow="555" windowWidth="20100" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="DB_Architechture" sheetId="2" r:id="rId1"/>
+    <sheet name="Project Plan" sheetId="3" r:id="rId2"/>
+    <sheet name="Resource Planning" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="112">
   <si>
     <t>Table Name</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vikash </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -577,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -611,17 +611,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,6 +637,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF006600"/>
+      <color rgb="FF339933"/>
+      <color rgb="FF339966"/>
       <color rgb="FF303030"/>
     </mruColors>
   </colors>
@@ -640,6 +649,1281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$E$8:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Vikash </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shubham P</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jyoti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62014486386626566"/>
+          <c:y val="0.20854248291427341"/>
+          <c:w val="0.34552037218523651"/>
+          <c:h val="0.58291452698847424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$G$8:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Debapriya</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Shubham P</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vikash </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$H$8:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$I$8:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Prajwal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jyoti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuzha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$J$8:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$K$8:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nuzha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Vikash </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$L$8:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$M$8:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vikash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prajwal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$N$8:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Resource Planning'!$O$8:$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Vikash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nuzha</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prajwal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jyoti</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Resource Planning'!$P$8:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>49500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="2676525"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Frontend Development</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15451</cdr:x>
+      <cdr:y>0.02899</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85837</cdr:x>
+      <cdr:y>0.14493</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="342900" y="57150"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Requirement Gathering</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15152</cdr:x>
+      <cdr:y>0.03541</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85479</cdr:x>
+      <cdr:y>0.15128</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="336550" y="69850"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Backend Development</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14294</cdr:x>
+      <cdr:y>0.02575</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84621</cdr:x>
+      <cdr:y>0.14163</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="317500" y="50800"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Android Development</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21155</cdr:x>
+      <cdr:y>0.03058</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91482</cdr:x>
+      <cdr:y>0.14645</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="469900" y="60325"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Documentation</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31447</cdr:x>
+      <cdr:y>0.02092</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70327</cdr:x>
+      <cdr:y>0.14484</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="698500" y="41274"/>
+          <a:ext cx="863600" cy="244475"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>UX Design</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1998,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2016,18 +3300,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
@@ -2056,10 +3340,10 @@
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2068,14 +3352,14 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2084,37 +3368,37 @@
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="30" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2126,31 +3410,31 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="17" t="s">
         <v>80</v>
       </c>
@@ -2160,19 +3444,19 @@
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="30" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -2184,38 +3468,38 @@
       <c r="E21" s="17"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
     <row r="23" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2239,182 +3523,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M11"/>
+  <dimension ref="E2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="6" spans="5:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="P6" s="32"/>
+    </row>
+    <row r="8" spans="5:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="31">
+      <c r="F8" s="28">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="31">
+      <c r="H8" s="28">
         <v>45</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="31">
+      <c r="J8" s="28">
         <v>30</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="31">
+      <c r="L8" s="28">
         <v>50</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="31">
-        <v>100</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="N8" s="28">
+        <v>90</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="31">
+      <c r="P8" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="5:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="31">
+      <c r="F9" s="28">
         <v>35</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="31">
+      <c r="H9" s="28">
         <v>40</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="31">
+      <c r="J9" s="28">
         <v>30</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="31">
+      <c r="L9" s="28">
         <v>50</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="29">
+        <v>10</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="31">
+      <c r="P9" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="5:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="31">
+      <c r="F10" s="28">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="31">
+      <c r="H10" s="28">
         <v>15</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="31">
+      <c r="J10" s="28">
         <v>40</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="31">
+      <c r="P10" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+    <row r="11" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2422,23 +3707,33 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="31">
+      <c r="P11" s="28">
         <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E2:P3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DB Architecture.xlsx
+++ b/DB Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="555" windowWidth="20100" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="150" yWindow="555" windowWidth="20100" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Architechture" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
   <si>
     <t>Table Name</t>
   </si>
@@ -2215,10 +2215,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2287,7 +2287,9 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2397,7 +2399,9 @@
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2890,7 +2894,9 @@
       <c r="F39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:25" ht="18" x14ac:dyDescent="0.35">
@@ -2982,7 +2988,9 @@
       <c r="F45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -3525,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/DB Architecture.xlsx
+++ b/DB Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="555" windowWidth="20100" windowHeight="7365"/>
+    <workbookView xWindow="150" yWindow="555" windowWidth="20100" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Architechture" sheetId="2" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -444,8 +444,14 @@
       <name val="Lato Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +485,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,10 +593,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -623,14 +666,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2215,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
@@ -3531,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:P17"/>
+  <dimension ref="E2:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3546,60 +3606,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="6" spans="5:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="32"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="8" spans="5:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="15" t="s">
@@ -3725,10 +3785,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DB Architecture.xlsx
+++ b/DB Architecture.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Project Plan" sheetId="3" r:id="rId2"/>
     <sheet name="Resource Planning" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
   <si>
     <t>Table Name</t>
   </si>
@@ -369,12 +369,15 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Github Profiles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -450,8 +453,27 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -614,9 +642,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,11 +679,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,27 +701,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,15 +1286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>308723</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>259541</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1277,14 +1317,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>11400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663511</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1307,14 +1347,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>49500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86850</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1337,14 +1377,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39785</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1353,8 +1393,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="2676525"/>
-          <a:ext cx="1562100" cy="228600"/>
+          <a:off x="5272928" y="3160623"/>
+          <a:ext cx="1553135" cy="308162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,14 +1481,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>20925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86850</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1471,14 +1511,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>20925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86850</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1501,14 +1541,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>49500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77325</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1525,6 +1565,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134485</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>851661</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="739603" y="190501"/>
+          <a:ext cx="717176" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2276,9 +2360,9 @@
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3368,18 +3452,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
@@ -3388,186 +3472,186 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="30"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="30"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="30"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="30"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="30"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B23" s="30"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="30"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3591,207 +3675,242 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:P30"/>
+  <dimension ref="B2:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="15.5703125" style="29" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="12.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="6" spans="5:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="34" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="39" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="8" spans="5:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="15" t="s">
+      <c r="P6" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="31" t="str">
+        <f>HYPERLINK("https://github.com/yodebu", "Debapriya")</f>
+        <v>Debapriya</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="28">
         <v>35</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="H8" s="28">
         <v>45</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="27" t="s">
         <v>107</v>
       </c>
       <c r="J8" s="28">
         <v>30</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="27" t="s">
         <v>108</v>
       </c>
       <c r="L8" s="28">
         <v>50</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="27" t="s">
         <v>103</v>
       </c>
       <c r="N8" s="28">
         <v>90</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="27" t="s">
         <v>103</v>
       </c>
       <c r="P8" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="5:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="15" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="32" t="str">
+        <f>HYPERLINK("https://github.com/jyoti28089", "Jyoti")</f>
+        <v>Jyoti</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>104</v>
       </c>
       <c r="F9" s="28">
         <v>35</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="27" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="28">
         <v>40</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="27" t="s">
         <v>105</v>
       </c>
       <c r="J9" s="28">
         <v>30</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="27" t="s">
         <v>110</v>
       </c>
       <c r="L9" s="28">
         <v>50</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>10</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="27" t="s">
         <v>108</v>
       </c>
       <c r="P9" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="5:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="15" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="str">
+        <f>HYPERLINK("https://github.com/hzaun", "Nuzha")</f>
+        <v>Nuzha</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>105</v>
       </c>
       <c r="F10" s="28">
         <v>30</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="27" t="s">
         <v>110</v>
       </c>
       <c r="H10" s="28">
         <v>15</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="27" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="28">
         <v>40</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
         <v>107</v>
       </c>
       <c r="P10" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="str">
+        <f>HYPERLINK("https://github.com/Lprajwal", "Prajwal")</f>
+        <v>Prajwal</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
         <v>105</v>
       </c>
       <c r="P11" s="28">
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="str">
+        <f>HYPERLINK("https://github.com/SAP0312", "Shubham P")</f>
+        <v>Shubham P</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="43" t="str">
+        <f>HYPERLINK("https://github.com/Vicky1812", "Vikash")</f>
+        <v>Vikash</v>
+      </c>
+    </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="K17" t="s">
+      <c r="K17" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="33"/>
+      <c r="G30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
